--- a/Ecopulper/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
+++ b/Ecopulper/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\New Cases\Ecopulper\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Ecopulper\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FDA229-87AD-44FE-B21B-34F4F8D0776A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36145C-745D-4A57-BED4-2E6151C0138E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
@@ -1123,11 +1123,11 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E2" s="52">
         <f>main!C34</f>
-        <v>-2.5504753816423371E-2</v>
+        <v>-2.5750672741101175E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1523,9 +1523,9 @@
       <c r="D3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="54">
         <f>main!C31</f>
-        <v>1.9446613275375006E-2</v>
+        <v>1.9634119112903452E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1551,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C2" s="49">
         <f>main!C27</f>
-        <v>99.045000000000002</v>
+        <v>1.0000000000000113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="C3" s="49">
         <f>main!C28</f>
-        <v>3.1949999999999998</v>
+        <v>3.2258064516129392E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G2" s="47">
         <f>-main!C29</f>
-        <v>-8.9859375000000009E-3</v>
+        <v>-9.0725806451613926E-5</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>17</v>
@@ -1704,9 +1704,9 @@
       <c r="F3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="53">
         <f>main!C30</f>
-        <v>8.0667432846000004E-4</v>
+        <v>8.1445234838710602E-6</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>17</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G4" s="50">
         <f>main!C33</f>
-        <v>3.1949999999999998</v>
+        <v>3.2258064516129392E-2</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>17</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F2" s="49">
         <f>main!C32</f>
-        <v>9.9045000000000005</v>
+        <v>0.10000000000000113</v>
       </c>
       <c r="G2" s="49" t="s">
         <v>17</v>
@@ -2518,7 +2518,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,7 +2871,7 @@
         <v>218</v>
       </c>
       <c r="C17" s="39">
-        <v>639</v>
+        <v>6.4516129032258789</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="C23" s="29">
         <f>C20*C17/C22</f>
-        <v>8.9859375000000009E-3</v>
+        <v>9.0725806451613926E-5</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C25" s="26">
         <f>C24*C6*C17</f>
-        <v>19446.613275375006</v>
+        <v>196.34119112903451</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>231</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C26" s="26">
         <f>C24*3600/1000*C17/C12/C13*C14</f>
-        <v>806.67432846000008</v>
+        <v>8.1445234838710601</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>189</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C27" s="21">
         <f>C17*C2/1000</f>
-        <v>99.045000000000002</v>
+        <v>1.0000000000000113</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>235</v>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C28" s="21">
         <f>C17*C3/1000</f>
-        <v>3.1949999999999998</v>
+        <v>3.2258064516129392E-2</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>235</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C29" s="31">
         <f>C23</f>
-        <v>8.9859375000000009E-3</v>
+        <v>9.0725806451613926E-5</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>238</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C30" s="25">
         <f>C26/1000000</f>
-        <v>8.0667432846000004E-4</v>
+        <v>8.1445234838710602E-6</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>235</v>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C31" s="25">
         <f>C25/(10^6)</f>
-        <v>1.9446613275375006E-2</v>
+        <v>1.9634119112903452E-4</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>202</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C32" s="25">
         <f>C27/C16</f>
-        <v>9.9045000000000005</v>
+        <v>0.10000000000000113</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>235</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C33" s="25">
         <f>C4*C17/1000</f>
-        <v>3.1949999999999998</v>
+        <v>3.2258064516129392E-2</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>235</v>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="C34" s="30">
         <f>C15*C7*C17/C22</f>
-        <v>-2.5504753816423371E-2</v>
+        <v>-2.5750672741101175E-4</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>238</v>
